--- a/output/inference_results/test_sheets/batch_005/test_sheet (55).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (55).xlsx
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>乙肝表面抗体</t>
+          <t>乙肝表面抗原</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>乙肝e抗原</t>
+          <t>乙肝表面抗原</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>乙肝核心抗体</t>
+          <t>乙型肝炎核心抗体定量</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
